--- a/config_7.13/shoping_config_vivo.xlsx
+++ b/config_7.13/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5451" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5451" uniqueCount="1869">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5911,6 +5911,9 @@
   </si>
   <si>
     <t>消暑礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq_cjj",</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -6830,9 +6833,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6867,6 +6870,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6882,14 +6940,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6904,7 +6977,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6918,79 +6991,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7004,8 +7006,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7103,6 +7106,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7115,7 +7160,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7127,13 +7184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7145,13 +7214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7163,73 +7238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7241,19 +7250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7293,15 +7296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7321,22 +7315,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7373,20 +7361,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7398,10 +7401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7410,133 +7413,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10298,11 +10301,11 @@
   <dimension ref="A1:AO694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H657" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O666" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14223,7 +14226,6 @@
       <c r="G67" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="H67" s="23"/>
       <c r="I67" s="23" t="s">
         <v>331</v>
       </c>
@@ -14283,7 +14285,6 @@
       <c r="G68" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="H68" s="23"/>
       <c r="I68" s="23" t="s">
         <v>334</v>
       </c>
@@ -14343,7 +14344,6 @@
       <c r="G69" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="H69" s="23"/>
       <c r="I69" s="23" t="s">
         <v>337</v>
       </c>
@@ -14403,7 +14403,6 @@
       <c r="G70" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="H70" s="23"/>
       <c r="I70" s="23" t="s">
         <v>340</v>
       </c>
@@ -14463,7 +14462,6 @@
       <c r="G71" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="H71" s="23"/>
       <c r="I71" s="23" t="s">
         <v>343</v>
       </c>
@@ -14818,7 +14816,6 @@
       <c r="G77" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="H77" s="24"/>
       <c r="K77" s="24" t="s">
         <v>355</v>
       </c>
@@ -14884,7 +14881,6 @@
       <c r="G78" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="H78" s="24"/>
       <c r="K78" s="24" t="s">
         <v>361</v>
       </c>
@@ -15083,7 +15079,6 @@
       <c r="G81" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="H81" s="24"/>
       <c r="K81" s="24" t="s">
         <v>377</v>
       </c>
@@ -15815,7 +15810,6 @@
       <c r="G94" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="H94" s="23"/>
       <c r="M94" s="23">
         <v>-4</v>
       </c>
@@ -16170,7 +16164,6 @@
       <c r="G100" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H100" s="24"/>
       <c r="K100" s="24" t="s">
         <v>444</v>
       </c>
@@ -16234,7 +16227,6 @@
       <c r="G101" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="H101" s="24"/>
       <c r="K101" s="24" t="s">
         <v>448</v>
       </c>
@@ -16298,7 +16290,6 @@
       <c r="G102" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="H102" s="24"/>
       <c r="K102" s="24" t="s">
         <v>451</v>
       </c>
@@ -16362,7 +16353,6 @@
       <c r="G103" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H103" s="24"/>
       <c r="K103" s="24" t="s">
         <v>444</v>
       </c>
@@ -16426,7 +16416,6 @@
       <c r="G104" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="H104" s="24"/>
       <c r="K104" s="24" t="s">
         <v>454</v>
       </c>
@@ -16490,7 +16479,6 @@
       <c r="G105" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H105" s="24"/>
       <c r="K105" s="24" t="s">
         <v>456</v>
       </c>
@@ -16554,7 +16542,6 @@
       <c r="G106" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H106" s="24"/>
       <c r="K106" s="24" t="s">
         <v>444</v>
       </c>
@@ -16618,7 +16605,6 @@
       <c r="G107" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="H107" s="24"/>
       <c r="K107" s="24" t="s">
         <v>451</v>
       </c>
@@ -16682,7 +16668,6 @@
       <c r="G108" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H108" s="24"/>
       <c r="K108" s="24" t="s">
         <v>458</v>
       </c>
@@ -20363,7 +20348,6 @@
       <c r="G168" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="H168" s="24"/>
       <c r="K168" s="24" t="s">
         <v>646</v>
       </c>
@@ -20429,7 +20413,6 @@
       <c r="G169" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="H169" s="24"/>
       <c r="K169" s="24" t="s">
         <v>649</v>
       </c>
@@ -20492,7 +20475,6 @@
       <c r="G170" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="H170" s="24"/>
       <c r="K170" s="24" t="s">
         <v>652</v>
       </c>
@@ -20555,7 +20537,6 @@
       <c r="G171" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H171" s="25"/>
       <c r="J171" s="25" t="s">
         <v>655</v>
       </c>
@@ -20624,7 +20605,6 @@
       <c r="G172" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H172" s="25"/>
       <c r="J172" s="25" t="s">
         <v>657</v>
       </c>
@@ -20693,7 +20673,6 @@
       <c r="G173" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H173" s="25"/>
       <c r="J173" s="25" t="s">
         <v>660</v>
       </c>
@@ -20762,7 +20741,6 @@
       <c r="G174" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H174" s="25"/>
       <c r="J174" s="25" t="s">
         <v>663</v>
       </c>
@@ -20831,7 +20809,6 @@
       <c r="G175" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H175" s="25"/>
       <c r="J175" s="25" t="s">
         <v>666</v>
       </c>
@@ -20900,7 +20877,6 @@
       <c r="G176" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H176" s="25"/>
       <c r="J176" s="25" t="s">
         <v>670</v>
       </c>
@@ -20969,7 +20945,6 @@
       <c r="G177" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H177" s="25"/>
       <c r="J177" s="25" t="s">
         <v>673</v>
       </c>
@@ -21038,7 +21013,6 @@
       <c r="G178" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H178" s="25"/>
       <c r="J178" s="25" t="s">
         <v>676</v>
       </c>
@@ -21107,7 +21081,6 @@
       <c r="G179" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H179" s="25"/>
       <c r="J179" s="25" t="s">
         <v>679</v>
       </c>
@@ -21176,7 +21149,6 @@
       <c r="G180" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H180" s="25"/>
       <c r="J180" s="25" t="s">
         <v>682</v>
       </c>
@@ -21245,7 +21217,6 @@
       <c r="G181" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H181" s="25"/>
       <c r="J181" s="25" t="s">
         <v>683</v>
       </c>
@@ -21314,7 +21285,6 @@
       <c r="G182" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H182" s="25"/>
       <c r="J182" s="25" t="s">
         <v>684</v>
       </c>
@@ -21383,7 +21353,6 @@
       <c r="G183" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H183" s="25"/>
       <c r="J183" s="25" t="s">
         <v>687</v>
       </c>
@@ -21452,7 +21421,6 @@
       <c r="G184" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H184" s="25"/>
       <c r="J184" s="25" t="s">
         <v>688</v>
       </c>
@@ -21521,7 +21489,6 @@
       <c r="G185" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="H185" s="25"/>
       <c r="J185" s="25" t="s">
         <v>689</v>
       </c>
@@ -30383,7 +30350,6 @@
       <c r="G323" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="H323" s="25"/>
       <c r="K323" s="25" t="s">
         <v>923</v>
       </c>
@@ -30449,7 +30415,6 @@
       <c r="G324" s="25" t="s">
         <v>925</v>
       </c>
-      <c r="H324" s="25"/>
       <c r="K324" s="25" t="s">
         <v>677</v>
       </c>
@@ -30515,7 +30480,6 @@
       <c r="G325" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="H325" s="25"/>
       <c r="K325" s="25" t="s">
         <v>680</v>
       </c>
@@ -30581,7 +30545,6 @@
       <c r="G326" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="H326" s="26"/>
       <c r="K326" s="26" t="s">
         <v>928</v>
       </c>
@@ -30641,7 +30604,6 @@
       <c r="G327" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="H327" s="25"/>
       <c r="K327" s="25" t="s">
         <v>932</v>
       </c>
@@ -31544,7 +31506,6 @@
       <c r="G338" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="H338" s="24"/>
       <c r="K338" s="24" t="s">
         <v>966</v>
       </c>
@@ -31859,7 +31820,6 @@
       <c r="G342" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="H342" s="30"/>
       <c r="K342" s="21" t="s">
         <v>980</v>
       </c>
@@ -31931,7 +31891,6 @@
       <c r="G343" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="H343" s="30"/>
       <c r="K343" s="21" t="s">
         <v>984</v>
       </c>
@@ -32003,7 +31962,6 @@
       <c r="G344" s="30" t="s">
         <v>987</v>
       </c>
-      <c r="H344" s="30"/>
       <c r="K344" s="21" t="s">
         <v>988</v>
       </c>
@@ -32075,7 +32033,6 @@
       <c r="G345" s="30" t="s">
         <v>991</v>
       </c>
-      <c r="H345" s="30"/>
       <c r="K345" s="21" t="s">
         <v>992</v>
       </c>
@@ -32147,7 +32104,6 @@
       <c r="G346" s="30" t="s">
         <v>995</v>
       </c>
-      <c r="H346" s="30"/>
       <c r="K346" s="21" t="s">
         <v>996</v>
       </c>
@@ -32219,7 +32175,6 @@
       <c r="G347" s="30" t="s">
         <v>999</v>
       </c>
-      <c r="H347" s="30"/>
       <c r="K347" s="21" t="s">
         <v>1000</v>
       </c>
@@ -32291,7 +32246,6 @@
       <c r="G348" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="H348" s="30"/>
       <c r="K348" s="21" t="s">
         <v>1004</v>
       </c>
@@ -32363,7 +32317,6 @@
       <c r="G349" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="H349" s="30"/>
       <c r="K349" s="21" t="s">
         <v>1008</v>
       </c>
@@ -32435,7 +32388,6 @@
       <c r="G350" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="H350" s="30"/>
       <c r="K350" s="21" t="s">
         <v>1012</v>
       </c>
@@ -32507,7 +32459,6 @@
       <c r="G351" s="30" t="s">
         <v>1015</v>
       </c>
-      <c r="H351" s="30"/>
       <c r="K351" s="21" t="s">
         <v>1016</v>
       </c>
@@ -32579,7 +32530,6 @@
       <c r="G352" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="H352" s="30"/>
       <c r="K352" s="21" t="s">
         <v>1020</v>
       </c>
@@ -36706,7 +36656,6 @@
       <c r="G414" s="23" t="s">
         <v>1159</v>
       </c>
-      <c r="H414" s="23"/>
       <c r="I414" s="23" t="s">
         <v>1160</v>
       </c>
@@ -37246,7 +37195,6 @@
       <c r="G422" s="27" t="s">
         <v>1168</v>
       </c>
-      <c r="H422" s="27"/>
       <c r="J422" s="27" t="s">
         <v>1169</v>
       </c>
@@ -37315,7 +37263,6 @@
       <c r="G423" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="H423" s="27"/>
       <c r="J423" s="27" t="s">
         <v>1169</v>
       </c>
@@ -37384,7 +37331,6 @@
       <c r="G424" s="27" t="s">
         <v>1177</v>
       </c>
-      <c r="H424" s="27"/>
       <c r="J424" s="27" t="s">
         <v>1169</v>
       </c>
@@ -47664,7 +47610,6 @@
       <c r="G580" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H580" s="30"/>
       <c r="J580" s="30" t="s">
         <v>1522</v>
       </c>
@@ -49746,7 +49691,6 @@
       <c r="G611" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H611" s="30"/>
       <c r="K611" s="28" t="s">
         <v>1581</v>
       </c>
@@ -49809,7 +49753,6 @@
       <c r="G612" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H612" s="30"/>
       <c r="K612" s="28" t="s">
         <v>1584</v>
       </c>
@@ -49872,7 +49815,6 @@
       <c r="G613" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H613" s="30"/>
       <c r="K613" s="28" t="s">
         <v>1586</v>
       </c>
@@ -49935,7 +49877,6 @@
       <c r="G614" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H614" s="30"/>
       <c r="K614" s="28" t="s">
         <v>1588</v>
       </c>
@@ -49998,7 +49939,6 @@
       <c r="G615" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H615" s="30"/>
       <c r="K615" s="28" t="s">
         <v>1590</v>
       </c>
@@ -50061,7 +50001,6 @@
       <c r="G616" s="30" t="s">
         <v>1580</v>
       </c>
-      <c r="H616" s="30"/>
       <c r="K616" s="28" t="s">
         <v>1592</v>
       </c>
@@ -50124,7 +50063,6 @@
       <c r="G617" s="30" t="s">
         <v>1594</v>
       </c>
-      <c r="H617" s="30"/>
       <c r="K617" s="30" t="s">
         <v>1346</v>
       </c>
@@ -50190,7 +50128,6 @@
       <c r="G618" s="30" t="s">
         <v>1594</v>
       </c>
-      <c r="H618" s="30"/>
       <c r="K618" s="30" t="s">
         <v>1346</v>
       </c>
@@ -50256,7 +50193,6 @@
       <c r="G619" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H619" s="30"/>
       <c r="J619" s="28" t="s">
         <v>1596</v>
       </c>
@@ -50325,7 +50261,6 @@
       <c r="G620" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H620" s="30"/>
       <c r="J620" s="28" t="s">
         <v>1596</v>
       </c>
@@ -50394,7 +50329,6 @@
       <c r="G621" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H621" s="30"/>
       <c r="J621" s="28" t="s">
         <v>1596</v>
       </c>
@@ -50463,7 +50397,6 @@
       <c r="G622" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H622" s="30"/>
       <c r="J622" s="28" t="s">
         <v>1561</v>
       </c>
@@ -50532,7 +50465,6 @@
       <c r="G623" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H623" s="30"/>
       <c r="J623" s="28" t="s">
         <v>1561</v>
       </c>
@@ -50601,7 +50533,6 @@
       <c r="G624" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H624" s="30"/>
       <c r="J624" s="28" t="s">
         <v>1561</v>
       </c>
@@ -50670,7 +50601,6 @@
       <c r="G625" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H625" s="30"/>
       <c r="J625" s="28" t="s">
         <v>1450</v>
       </c>
@@ -50739,7 +50669,6 @@
       <c r="G626" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H626" s="30"/>
       <c r="J626" s="28" t="s">
         <v>1450</v>
       </c>
@@ -50808,7 +50737,6 @@
       <c r="G627" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="H627" s="30"/>
       <c r="J627" s="28" t="s">
         <v>1450</v>
       </c>
@@ -50877,7 +50805,6 @@
       <c r="G628" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="H628" s="30"/>
       <c r="K628" s="30" t="s">
         <v>1615</v>
       </c>
@@ -50940,7 +50867,6 @@
       <c r="G629" s="30" t="s">
         <v>1120</v>
       </c>
-      <c r="H629" s="30"/>
       <c r="K629" s="30" t="s">
         <v>1617</v>
       </c>
@@ -51003,7 +50929,6 @@
       <c r="G630" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="H630" s="30"/>
       <c r="K630" s="30" t="s">
         <v>1618</v>
       </c>
@@ -51066,7 +50991,6 @@
       <c r="G631" s="30" t="s">
         <v>1127</v>
       </c>
-      <c r="H631" s="30"/>
       <c r="K631" s="30" t="s">
         <v>1620</v>
       </c>
@@ -51129,7 +51053,6 @@
       <c r="G632" s="30" t="s">
         <v>1130</v>
       </c>
-      <c r="H632" s="30"/>
       <c r="K632" s="30" t="s">
         <v>1621</v>
       </c>
@@ -51192,7 +51115,6 @@
       <c r="G633" s="30" t="s">
         <v>1133</v>
       </c>
-      <c r="H633" s="30"/>
       <c r="K633" s="30" t="s">
         <v>1622</v>
       </c>
@@ -51255,7 +51177,6 @@
       <c r="G634" s="30" t="s">
         <v>1137</v>
       </c>
-      <c r="H634" s="30"/>
       <c r="K634" s="30" t="s">
         <v>1624</v>
       </c>
@@ -51318,7 +51239,6 @@
       <c r="G635" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H635" s="30"/>
       <c r="J635" s="28" t="s">
         <v>1547</v>
       </c>
@@ -51387,7 +51307,6 @@
       <c r="G636" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H636" s="30"/>
       <c r="J636" s="28" t="s">
         <v>1547</v>
       </c>
@@ -51456,7 +51375,6 @@
       <c r="G637" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H637" s="30"/>
       <c r="J637" s="28" t="s">
         <v>1547</v>
       </c>
@@ -51525,7 +51443,6 @@
       <c r="G638" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H638" s="30"/>
       <c r="J638" s="28" t="s">
         <v>1554</v>
       </c>
@@ -51594,7 +51511,6 @@
       <c r="G639" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H639" s="30"/>
       <c r="J639" s="28" t="s">
         <v>1554</v>
       </c>
@@ -51663,7 +51579,6 @@
       <c r="G640" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H640" s="30"/>
       <c r="J640" s="28" t="s">
         <v>1554</v>
       </c>
@@ -51732,7 +51647,6 @@
       <c r="G641" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H641" s="30"/>
       <c r="J641" s="28" t="s">
         <v>1561</v>
       </c>
@@ -51801,7 +51715,6 @@
       <c r="G642" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H642" s="30"/>
       <c r="J642" s="28" t="s">
         <v>1561</v>
       </c>
@@ -51870,7 +51783,6 @@
       <c r="G643" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H643" s="30"/>
       <c r="J643" s="28" t="s">
         <v>1561</v>
       </c>
@@ -51939,7 +51851,6 @@
       <c r="G644" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H644" s="30"/>
       <c r="J644" s="28" t="s">
         <v>1450</v>
       </c>
@@ -52008,7 +51919,6 @@
       <c r="G645" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H645" s="30"/>
       <c r="J645" s="28" t="s">
         <v>1450</v>
       </c>
@@ -52077,7 +51987,6 @@
       <c r="G646" s="30" t="s">
         <v>1625</v>
       </c>
-      <c r="H646" s="30"/>
       <c r="J646" s="28" t="s">
         <v>1450</v>
       </c>
@@ -52270,7 +52179,6 @@
       <c r="G649" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H649" s="30"/>
       <c r="K649" s="28" t="s">
         <v>1581</v>
       </c>
@@ -52333,7 +52241,6 @@
       <c r="G650" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H650" s="30"/>
       <c r="K650" s="28" t="s">
         <v>1584</v>
       </c>
@@ -52396,7 +52303,6 @@
       <c r="G651" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H651" s="30"/>
       <c r="K651" s="28" t="s">
         <v>1586</v>
       </c>
@@ -52459,7 +52365,6 @@
       <c r="G652" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H652" s="30"/>
       <c r="K652" s="28" t="s">
         <v>1588</v>
       </c>
@@ -52522,7 +52427,6 @@
       <c r="G653" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H653" s="30"/>
       <c r="K653" s="28" t="s">
         <v>1590</v>
       </c>
@@ -52585,7 +52489,6 @@
       <c r="G654" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="H654" s="30"/>
       <c r="K654" s="28" t="s">
         <v>1592</v>
       </c>
@@ -52648,7 +52551,6 @@
       <c r="G655" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="H655" s="30"/>
       <c r="K655" s="30" t="s">
         <v>1615</v>
       </c>
@@ -52711,7 +52613,6 @@
       <c r="G656" s="30" t="s">
         <v>1120</v>
       </c>
-      <c r="H656" s="30"/>
       <c r="K656" s="30" t="s">
         <v>1617</v>
       </c>
@@ -52774,7 +52675,6 @@
       <c r="G657" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="H657" s="30"/>
       <c r="K657" s="30" t="s">
         <v>1618</v>
       </c>
@@ -52837,7 +52737,6 @@
       <c r="G658" s="30" t="s">
         <v>1127</v>
       </c>
-      <c r="H658" s="30"/>
       <c r="K658" s="30" t="s">
         <v>1620</v>
       </c>
@@ -52900,7 +52799,6 @@
       <c r="G659" s="30" t="s">
         <v>1130</v>
       </c>
-      <c r="H659" s="30"/>
       <c r="K659" s="30" t="s">
         <v>1621</v>
       </c>
@@ -52963,7 +52861,6 @@
       <c r="G660" s="30" t="s">
         <v>1133</v>
       </c>
-      <c r="H660" s="30"/>
       <c r="K660" s="30" t="s">
         <v>1622</v>
       </c>
@@ -53026,7 +52923,6 @@
       <c r="G661" s="30" t="s">
         <v>1137</v>
       </c>
-      <c r="H661" s="30"/>
       <c r="K661" s="30" t="s">
         <v>1624</v>
       </c>
@@ -54563,7 +54459,7 @@
         <v>49800</v>
       </c>
       <c r="R683" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S683" s="54" t="s">
         <v>1583</v>
@@ -54628,7 +54524,7 @@
         <v>19800</v>
       </c>
       <c r="R684" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S684" s="54" t="s">
         <v>1585</v>
@@ -54693,7 +54589,7 @@
         <v>9800</v>
       </c>
       <c r="R685" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S685" s="54" t="s">
         <v>1587</v>
@@ -54758,7 +54654,7 @@
         <v>4800</v>
       </c>
       <c r="R686" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S686" s="54" t="s">
         <v>1589</v>
@@ -54823,7 +54719,7 @@
         <v>2000</v>
       </c>
       <c r="R687" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S687" s="54" t="s">
         <v>1591</v>
@@ -54888,7 +54784,7 @@
         <v>600</v>
       </c>
       <c r="R688" s="28" t="s">
-        <v>1582</v>
+        <v>1657</v>
       </c>
       <c r="S688" s="54" t="s">
         <v>1593</v>
@@ -54932,10 +54828,10 @@
         <v>0</v>
       </c>
       <c r="G689" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K689" s="28" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="M689" s="28">
         <v>-31</v>
@@ -54997,10 +54893,10 @@
         <v>0</v>
       </c>
       <c r="G690" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K690" s="28" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="M690" s="28">
         <v>-31</v>
@@ -55062,10 +54958,10 @@
         <v>0</v>
       </c>
       <c r="G691" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K691" s="28" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="M691" s="28">
         <v>-31</v>
@@ -55127,10 +55023,10 @@
         <v>0</v>
       </c>
       <c r="G692" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K692" s="28" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="M692" s="28">
         <v>-31</v>
@@ -55192,10 +55088,10 @@
         <v>0</v>
       </c>
       <c r="G693" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K693" s="28" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="M693" s="28">
         <v>-31</v>
@@ -55257,10 +55153,10 @@
         <v>0</v>
       </c>
       <c r="G694" s="30" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="K694" s="28" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="M694" s="28">
         <v>-31</v>
@@ -55337,19 +55233,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -55357,7 +55253,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -55366,7 +55262,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -55374,7 +55270,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -55388,7 +55284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -55402,7 +55298,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -55416,7 +55312,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -55430,7 +55326,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -55444,7 +55340,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -55458,7 +55354,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -55472,7 +55368,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -55486,7 +55382,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -55500,7 +55396,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -55514,7 +55410,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -55528,7 +55424,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -55542,7 +55438,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -55556,7 +55452,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -55570,7 +55466,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -55584,7 +55480,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -55598,7 +55494,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -55612,7 +55508,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -55626,7 +55522,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -55640,7 +55536,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -55654,7 +55550,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -55668,7 +55564,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -55682,7 +55578,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -55696,7 +55592,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -55710,7 +55606,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -55724,7 +55620,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -55738,7 +55634,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -55752,7 +55648,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -55766,7 +55662,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -55780,7 +55676,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -55794,7 +55690,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -55808,7 +55704,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -55822,7 +55718,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -55836,7 +55732,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -55850,7 +55746,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -55864,7 +55760,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -55878,7 +55774,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -55892,7 +55788,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -55906,7 +55802,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -55920,7 +55816,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -55934,7 +55830,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -55948,7 +55844,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -55962,7 +55858,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -55976,7 +55872,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -55990,7 +55886,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -56004,7 +55900,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -56018,7 +55914,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -56032,7 +55928,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -56046,7 +55942,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -56060,7 +55956,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -56074,7 +55970,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -56088,7 +55984,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -56102,7 +55998,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -56116,7 +56012,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -56130,7 +56026,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -56144,7 +56040,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -56158,7 +56054,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -56172,7 +56068,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -56186,7 +56082,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -56200,7 +56096,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -56214,7 +56110,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -56228,7 +56124,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -56242,7 +56138,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -56256,7 +56152,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -56270,7 +56166,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -56284,7 +56180,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -56298,7 +56194,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -56312,7 +56208,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -56326,7 +56222,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -56340,7 +56236,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -56354,7 +56250,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -56368,7 +56264,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -56382,7 +56278,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -56396,7 +56292,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -56410,7 +56306,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -56424,7 +56320,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -56438,7 +56334,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -56452,7 +56348,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -56466,7 +56362,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -56480,7 +56376,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -56494,7 +56390,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -56508,7 +56404,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -56522,7 +56418,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -56574,7 +56470,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -56586,19 +56482,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -56613,7 +56509,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -56658,7 +56554,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -56678,7 +56574,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -56705,22 +56601,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -56746,7 +56642,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -56776,19 +56672,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -56814,7 +56710,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -56841,22 +56737,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -56882,7 +56778,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -56909,22 +56805,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -56950,7 +56846,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -56977,22 +56873,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -57018,7 +56914,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -57045,22 +56941,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -57083,7 +56979,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -57110,22 +57006,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -57149,7 +57045,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -57177,10 +57073,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -57188,10 +57084,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -57204,7 +57100,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -57222,7 +57118,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -57250,10 +57146,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -57261,10 +57157,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -57277,7 +57173,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -57294,7 +57190,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -57324,19 +57220,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -57362,7 +57258,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -57389,22 +57285,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -57430,7 +57326,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -57457,22 +57353,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>1794</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>1764</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1792</v>
       </c>
-      <c r="Q13" s="15" t="s">
-        <v>1793</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>1763</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>1794</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1791</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -57498,7 +57394,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -57525,22 +57421,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -57564,7 +57460,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -57594,10 +57490,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -57605,10 +57501,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -57621,7 +57517,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -57641,7 +57537,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -57668,23 +57564,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -57709,7 +57605,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -57736,23 +57632,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -57777,7 +57673,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -57804,23 +57700,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -57845,7 +57741,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -57872,23 +57768,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -57913,7 +57809,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -57940,22 +57836,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -57979,7 +57875,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -58010,20 +57906,20 @@
         <v>891</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -58052,7 +57948,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -58080,10 +57976,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -58091,10 +57987,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="V22" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -58123,7 +58019,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -58151,10 +58047,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -58162,10 +58058,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -58187,14 +58083,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -58224,10 +58120,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -58235,10 +58131,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -58251,7 +58147,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -58271,7 +58167,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -58298,22 +58194,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -58376,13 +58272,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -58394,16 +58290,16 @@
         <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -58444,7 +58340,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -58456,7 +58352,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -58465,7 +58361,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -58474,22 +58370,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -58500,7 +58396,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -58512,7 +58408,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -58521,7 +58417,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -58530,22 +58426,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -58559,7 +58455,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -58584,19 +58480,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -58607,7 +58503,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -58634,10 +58530,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -58648,7 +58544,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -58675,10 +58571,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -58689,7 +58585,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -58701,7 +58597,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -58710,7 +58606,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -58719,22 +58615,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -58748,10 +58644,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -58763,7 +58659,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -58778,22 +58674,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -58804,10 +58700,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -58822,16 +58718,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -58842,10 +58738,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -58860,16 +58756,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -58880,10 +58776,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -58898,16 +58794,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -58918,10 +58814,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -58936,16 +58832,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -58956,7 +58852,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -58980,16 +58876,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -59003,7 +58899,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -59027,16 +58923,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -59050,10 +58946,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -59074,16 +58970,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -59097,10 +58993,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -59116,13 +59012,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -59133,10 +59029,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -59152,13 +59048,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -59169,7 +59065,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -59188,13 +59084,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -59205,7 +59101,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -59224,13 +59120,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -59241,7 +59137,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -59259,16 +59155,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -59279,7 +59175,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -59297,16 +59193,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
